--- a/result_pysr/equations_exclude_water.xlsx
+++ b/result_pysr/equations_exclude_water.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-density*tan(0.594245504821029*sqrt(exp(-sqrt(density))) - log(sqrt(sin(sqrt(log(temperature*(MW + density/(1.9848928 - 2.23967646887949*density/MW**2)))))))**3)/(density**1.005 + 1.0e-16)</t>
+          <t>1.18031306514525*density*(-0.010629518*temperature**3 + 0.010629518*(-density**2*(Sigma + temperature)**2 + log(20.9359470498335*(0.0087698767316644 - density)**6))/temperature)*exp(Sigma*density**3)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>density*(-1.63626653518779e-6*temperature**2*sqrt(MW**2 + 0.506171079958493*exp(sqrt(density))) - 0.297670892093937*sqrt(1/density))/(density**1.005 + 1.0e-16)</t>
+          <t>-0.061798546*density*(temperature + 0.3182122/Sigma**3)*(temperature - cos(1.55562946523993*Epsilon + 1.55562946523993*log(density + 0.037961863)/temperature) - 0.061798546)*exp(Sigma*density**3)/(nu*(density**1.005 + 1.0e-16))</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>density*((-1.0770614656584e-6*MW - 7.57642222098546e-7*sqrt(exp(sqrt(density))))*(1.1410177*temperature**2 + (density/MW)**(9/2)) - 0.43318090395904*exp(-2*sqrt(density/MW)))/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>density*(temperature**2*(-9.455398e-7*MW - 9.455398e-7*sqrt(exp(sqrt(MW)) + exp(sqrt(density)))) - 0.31503737/sqrt(density))/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>density*(-2.70233178532659e-7*(0.521952295752368*MW + 0.521952295752368*density + temperature)**3 - 0.55195343/(1.9158839 + density**2/MW))/(density**1.005 + 1.0e-16)</t>
+          <t>0.009228687*density*(-(temperature - 1*(-0.41288754))**3 + (258.187048744477*(density - 0.720290483206596)**9)/(Epsilon*temperature))*exp(density**3)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
